--- a/4-1/전산통계/12주차/전산통계-12주차-과제.xlsx
+++ b/4-1/전산통계/12주차/전산통계-12주차-과제.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Haram/Project/University/4-1/전산통계/12주차/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE37C45E-33A7-6640-B51B-8976B64F2C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B19AC5-E6EB-0447-84CB-4A4BCADA6BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17920" yWindow="500" windowWidth="17920" windowHeight="20060" activeTab="4" xr2:uid="{CC94BF09-7EC3-6B47-B096-0859CFFABE02}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="17920" windowHeight="20160" activeTab="1" xr2:uid="{CC94BF09-7EC3-6B47-B096-0859CFFABE02}"/>
   </bookViews>
   <sheets>
     <sheet name="연습문제 8.1" sheetId="1" r:id="rId1"/>
     <sheet name="연습문제 8.3" sheetId="2" r:id="rId2"/>
     <sheet name="연습문제 8.5" sheetId="3" r:id="rId3"/>
     <sheet name="연습문제 8.7" sheetId="4" r:id="rId4"/>
-    <sheet name="연습문제 8.9" sheetId="5" r:id="rId5"/>
+    <sheet name="연습문제 8.11" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -772,6 +772,21 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -781,23 +796,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1128,7 +1128,7 @@
     <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="53" thickBot="1">
+    <row r="1" spans="1:5" ht="29" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
@@ -1257,7 +1257,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C186648-0C52-304D-BB48-FD09E0692858}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -1745,17 +1745,17 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1"/>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="26" t="s">
         <v>50</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1767,7 +1767,7 @@
       <c r="D2" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="28"/>
+      <c r="E2" s="33"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="4" t="s">
@@ -2064,141 +2064,141 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38F2388-2EA9-684B-88D9-2CA78FC9486D}">
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="28" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>50</v>
       </c>
-      <c r="C2" s="31">
+      <c r="C2" s="28">
         <v>67</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="34">
         <f>AVERAGE(B2:C5)</f>
         <v>56.5</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="32"/>
-      <c r="B3" s="31">
+      <c r="A3" s="34"/>
+      <c r="B3" s="28">
         <v>55</v>
       </c>
-      <c r="C3" s="31">
+      <c r="C3" s="28">
         <v>58</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="32"/>
-      <c r="B4" s="31">
+      <c r="A4" s="34"/>
+      <c r="B4" s="28">
         <v>45</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="28">
         <v>60</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="32"/>
-      <c r="B5" s="31">
+      <c r="A5" s="34"/>
+      <c r="B5" s="28">
         <v>52</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="28">
         <v>65</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>70</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="28">
         <v>51</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="34">
         <f>AVERAGE(B6:C9)</f>
         <v>62</v>
       </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="32"/>
-      <c r="B7" s="31">
+      <c r="A7" s="34"/>
+      <c r="B7" s="28">
         <v>72</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="28">
         <v>48</v>
       </c>
-      <c r="D7" s="32"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="32"/>
-      <c r="B8" s="31">
+      <c r="A8" s="34"/>
+      <c r="B8" s="28">
         <v>68</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="28">
         <v>57</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="34"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="32"/>
-      <c r="B9" s="31">
+      <c r="A9" s="34"/>
+      <c r="B9" s="28">
         <v>75</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="28">
         <v>55</v>
       </c>
-      <c r="D9" s="32"/>
+      <c r="D9" s="34"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <f>AVERAGE(B2:B9)</f>
         <v>60.875</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="28">
         <f>AVERAGE(C2:C9)</f>
         <v>57.625</v>
       </c>
-      <c r="D10" s="31">
+      <c r="D10" s="28">
         <f>AVERAGE(B10:C10,D2:D9)</f>
         <v>59.25</v>
       </c>
@@ -2207,14 +2207,14 @@
       <c r="A12" t="s">
         <v>71</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="5"/>
     </row>
     <row r="13" spans="1:10">
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
-      <c r="J13" s="30"/>
+      <c r="J13" s="27"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
@@ -2231,17 +2231,17 @@
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
-      <c r="J14" s="30"/>
+      <c r="J14" s="27"/>
     </row>
     <row r="15" spans="1:10" ht="19" thickBot="1">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
       <c r="J15" s="5"/>
     </row>
     <row r="16" spans="1:10">
@@ -2316,12 +2316,12 @@
       <c r="D20" s="10"/>
     </row>
     <row r="21" spans="1:10" ht="19" thickBot="1">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="10" t="s">
@@ -2386,12 +2386,12 @@
       <c r="D26" s="10"/>
     </row>
     <row r="27" spans="1:10" ht="19" thickBot="1">
-      <c r="A27" s="33" t="s">
+      <c r="A27" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="B27" s="29"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="29"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="10" t="s">
@@ -2537,7 +2537,7 @@
       <c r="E38" s="10">
         <v>61.504132231404959</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="30">
         <v>4.6062843771167201E-6</v>
       </c>
       <c r="G38" s="10">
